--- a/spreadsheets/Tristana.xlsx
+++ b/spreadsheets/Tristana.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF01041-4A1C-40D1-AA7A-0B08F299D68E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CDAB5E-41B8-4E82-9D57-FD2B43B66D19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1875" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>Champion</t>
   </si>
@@ -52,9 +52,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Easy to abuse when he has sniper/flamethrower/gravitum. Aphelios has no escapes from trsitana's level 2-3 engage, and when he doesn't have his pistol or chakrum, aphelios is very weak close range.</t>
-  </si>
-  <si>
     <t>Please don't change id/name (B1/B2) cells.</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Ashe</t>
   </si>
   <si>
-    <t>Hard to cs early game with short range, but easy to all in with agressive supports. Mid-Late game you match ashe's range and can deal out more damage in teamfights if you position correctly.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 should indicate an extremely easy matchup. </t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>Draven</t>
   </si>
   <si>
-    <t>Need to play very safe early, but can abuse with agressive supports and win fights once you hit level 6. Jungle ganks are also easy to set up into this matchup.</t>
-  </si>
-  <si>
     <t>Feel free to use non integers.</t>
   </si>
   <si>
@@ -166,18 +157,12 @@
     <t>Lucian</t>
   </si>
   <si>
-    <t>This is mostly a skill matchup, but Lucian has high mobility and early game damage which makes it hard for Tristana to get a lead. With agressive supports that have cc, you can abuse Lucian early by landing your w-e combo, but with passive supports, try to survive until the midgame where you start to outrange and outdamage Lucian.</t>
-  </si>
-  <si>
     <t>Miss Fortune</t>
   </si>
   <si>
     <t>https://na.op.gg/summoner/userName=17yo+sit</t>
   </si>
   <si>
-    <t>Miss Fortune does have no escapes, but she is very strong in the early game, and can abuse your level 1 which makes it hard to lane. Only try to kill her with the help of a jungler and agressive support, as you can start off ganks very easily once you get rocket jump.</t>
-  </si>
-  <si>
     <t>Senna</t>
   </si>
   <si>
@@ -229,15 +214,9 @@
     <t>For op.gg, you can also link a multi op.gg</t>
   </si>
   <si>
-    <t>bmfx#7405</t>
-  </si>
-  <si>
     <t>If you aren't sure for portrait, just send me the picture you want on discord (usephysics#0001)</t>
   </si>
   <si>
-    <t>https://static-cdn.jtvnw.net/jtv_user_pictures/189121d3-5611-4de6-bc9c-3860755f7eb6-profile_image-150x150.png</t>
-  </si>
-  <si>
     <t>Portrait can be anything you want, it doesn't have to be an irl picture.</t>
   </si>
   <si>
@@ -284,13 +263,31 @@
   </si>
   <si>
     <t>portrait</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/xq7Z9sm.png</t>
+  </si>
+  <si>
+    <t>This is mostly a skill matchup, but Lucian has high mobility and early game damage which makes it hard for Tristana to get a lead. With aggressive supports that have cc, you can abuse Lucian early by landing your w-e combo, but with passive supports, try to survive until the midgame where you start to outrange and outdamage Lucian.</t>
+  </si>
+  <si>
+    <t>Miss Fortune does have no escapes, but she is very strong in the early game, and can abuse your level 1 which makes it hard to lane. Only try to kill her with the help of a jungler and aggressive support, as you can start off ganks very easily once you get rocket jump.</t>
+  </si>
+  <si>
+    <t>Need to play very safe early, but can abuse with aggressive supports and win fights once you hit level 6. Jungle ganks are also easy to set up into this matchup.</t>
+  </si>
+  <si>
+    <t>Hard to cs early game with short range, but easy to all in with aggressive supports. Mid-Late game you match ashe's range and can deal out more damage in teamfights if you position correctly.</t>
+  </si>
+  <si>
+    <t>Easy to abuse when he has sniper/flamethrower/gravitum. Aphelios has no escapes from tristana's level 2-3 engage, and when he doesn't have his pistol or chakrum, aphelios is very weak close range.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,14 +316,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -374,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -382,9 +371,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -745,7 +733,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -776,119 +764,117 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>72</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>73</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>71</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1877,7 +1863,7 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{81261BEC-356B-4AA6-9730-3396091A378C}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{9D1169F8-C2BE-4F94-9C98-2DB0C66B2E7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -1890,7 +1876,7 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:C21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1920,10 +1906,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1936,16 +1922,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1958,16 +1944,16 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1980,16 +1966,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2002,16 +1988,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2024,16 +2010,16 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2046,16 +2032,16 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2068,13 +2054,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>33</v>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2088,16 +2074,16 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2110,16 +2096,16 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2132,112 +2118,112 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>43</v>
+      <c r="C12" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4">
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4">
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B15" s="4">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B16" s="4">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4">
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B20" s="4">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" s="4">
         <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
